--- a/2016년 재료비 6월/한자속독 교재비.xlsx
+++ b/2016년 재료비 6월/한자속독 교재비.xlsx
@@ -200,29 +200,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>

--- a/2016년 재료비 6월/한자속독 교재비.xlsx
+++ b/2016년 재료비 6월/한자속독 교재비.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="한자속독 교재비" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -196,33 +196,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,39 +520,40 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="12" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -575,10 +573,10 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>22000</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -596,10 +594,10 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>22000</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -617,10 +615,10 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>22000</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -638,10 +636,10 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>22000</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -659,10 +657,10 @@
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>2000</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -680,10 +678,10 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>4000</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -701,10 +699,10 @@
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>22000</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -722,10 +720,10 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>2000</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -743,19 +741,14 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>22000</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="F11" s="1">
-        <f>SUM(F2:F10)</f>
-        <v>140000</v>
-      </c>
-    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1"/>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1"/>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1"/>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1"/>
